--- a/lab1/lab1-flu.xlsx
+++ b/lab1/lab1-flu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10703"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/6A050970-A577-49B6-B539-6FCBE5ADFF76/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E704E7-B59A-1A40-93F0-BF33C347A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1792B52-F952-4CB6-94DD-270FDBB1332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ความดันในกระบอกสูบ</t>
   </si>
@@ -67,32 +67,80 @@
   <si>
     <t>การทดลองที่</t>
   </si>
+  <si>
+    <t>น้ำหนักkg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,13 +148,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +217,4192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟหน้า1-6</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>เพิ่มน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A45-4FF7-A422-14DD05A11940}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ลดน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A45-4FF7-A422-14DD05A11940}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1913258111"/>
+        <c:axId val="1913250911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1913258111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ความดันในกระบอกสูบ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913250911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1913250911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ค่าอ่านได้จากเกจ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913258111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟหน้า1-7</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>เพิ่มน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7108-4284-A32F-BADFDF89B545}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.9622833679938667E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4607543326401249E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0588685010398122E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8491334719754668E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0981141683996887E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1177370020796227E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3735983575955402E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5698266943950934E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7660550311944245E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1962283367993543E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1585117047933089E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.76452599584076E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.7449031621608277E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7252803284808937E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7108-4284-A32F-BADFDF89B545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ลดน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7108-4284-A32F-BADFDF89B545}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-2.7252803284808724E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4490316216082597E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.6452599584073688E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2158511704793096E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1962283367993773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7660550311944245E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1569826694395111E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1373598357595576E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1177370020796227E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0981141683996896E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0784913347197453E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0588685010398131E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.9607543326401253E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1803771663200624E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7108-4284-A32F-BADFDF89B545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2059770767"/>
+        <c:axId val="2059771247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2059770767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ความดันในกระบอกสูบ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059771247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2059771247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ค่าความคลาดเคลื่อน</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059770767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟหน้า1-8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>เพิ่มน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C94F-4A9B-9FA3-4123B5BD60BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.8210526841384718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.1579276310862063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4348175444027582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8210526841384718E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0991926321097938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7665140356220668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8210526841372811E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8210526841384718E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8210526841381623E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59870157947557534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.821052684138723E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.73594122754897018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.056768825391412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.61677669120749479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C94F-4A9B-9FA3-4123B5BD60BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ลดน้ำหนัก</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C94F-4A9B-9FA3-4123B5BD60BC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7972528032848087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5974490316216081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3976452599584075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1978414882952069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9980377166320062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7982339449688056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.598430173305605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3986264016424044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1988226299792037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99901885831600312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7992150866528025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59941131498960187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39960754332640125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19980377166320062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.97427030023192074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.28678259056955469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.31886535035378805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55320239287247475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0991926321097938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8210526841381623E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3494381584269031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9581593990368433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7665140356220668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1001747373782087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6006657900124077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1031210531834486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4091552626717254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.907682104769103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C94F-4A9B-9FA3-4123B5BD60BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2059770767"/>
+        <c:axId val="2059771247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2059770767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ความดันในกระบอกสูบ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059771247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2059771247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="th-TH"/>
+                  <a:t>ความคลาดเคลื่อน</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059770767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043B24FA-E277-9432-319F-4FD91E8C9BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373923</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>631370</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADB13BE-AFFD-B1B3-89C8-352647460504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283030</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616677</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE8F8AE-926F-4EE2-A073-453D8899D0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,713 +4702,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E7568-33BA-1C4C-A1EE-048DC1353CAE}">
-  <dimension ref="C2:K33"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1.7849999999999999</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f>PI()*(F2^2)/4</f>
         <v>2.5024552631710346</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
+    <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>0.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f>D6/F$3</f>
         <v>0.19980377166320062</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>0.2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f>F6-E6</f>
         <v>1.9622833679938667E-4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f>G6/E6*100</f>
         <v>9.8210526841384718E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" ref="E7:E33" si="0">D7/F$3</f>
         <v>0.39960754332640125</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>0.375</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" ref="G7:G33" si="1">F7-E7</f>
         <v>-2.4607543326401249E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" ref="H7:H33" si="2">G7/E7*100</f>
         <v>-6.1579276310862063</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>1.5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.59941131498960187</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>0.62</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>2.0588685010398122E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>3.4348175444027582</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.7992150866528025</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>0.8</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>7.8491334719754668E-4</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>9.8210526841384718E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>2.5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.99901885831600312</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>1.01</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>1.0981141683996887E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>1.0991926321097938</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>1.1988226299792037</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>1.22</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>2.1177370020796227E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>1.7665140356220668</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>3.5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>1.3986264016424044</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <v>1.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>1.3735983575955402E-3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>9.8210526841372811E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1.598430173305605</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>1.6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>1.5698266943950934E-3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>9.8210526841384718E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>4.5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.7982339449688056</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="8">
         <v>1.8</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>1.7660550311944245E-3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>9.8210526841381623E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.9980377166320062</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>1.1962283367993543E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>0.59870157947557534</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>5.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>2.1978414882952069</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>2.1585117047933089E-3</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>9.821052684138723E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>2.3976452599584075</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>2.38</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>-1.76452599584076E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>-0.73594122754897018</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>6.5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>2.5974490316216081</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="8">
         <v>2.57</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>-2.7449031621608277E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>-1.056768825391412</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>2.7972528032848087</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="8">
         <v>2.78</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>-1.7252803284808937E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>-0.61677669120749479</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="9">
         <v>7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>2.7972528032848087</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="8">
         <v>2.77</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>-2.7252803284808724E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>-0.97427030023192074</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="9">
         <v>6.5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>2.5974490316216081</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="8">
         <v>2.59</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>-7.4490316216082597E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>-0.28678259056955469</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>2.3976452599584075</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="8">
         <v>2.39</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>-7.6452599584073688E-3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>-0.31886535035378805</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>5.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.1978414882952069</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <v>2.21</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>1.2158511704793096E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>0.55320239287247475</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="9">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>1.9980377166320062</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <v>2.02</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>2.1962283367993773E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>1.0991926321097938</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="9">
         <v>4.5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>1.7982339449688056</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="8">
         <v>1.8</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>1.7660550311944245E-3</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>9.8210526841381623E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C26">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="9">
         <v>4</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>1.598430173305605</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="8">
         <v>1.62</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>2.1569826694395111E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>1.3494381584269031</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="9">
         <v>3.5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>1.3986264016424044</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>1.44</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>4.1373598357595576E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>2.9581593990368433</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C28">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>1.1988226299792037</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="8">
         <v>1.22</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>2.1177370020796227E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>1.7665140356220668</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="9">
         <v>2.5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>0.99901885831600312</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="8">
         <v>1.02</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>2.0981141683996896E-2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>2.1001747373782087</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0.7992150866528025</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="8">
         <v>0.82</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>2.0784913347197453E-2</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>2.6006657900124077</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
         <v>26</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="9">
         <v>1.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0.59941131498960187</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="8">
         <v>0.63</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>3.0588685010398131E-2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>5.1031210531834486</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>0.39960754332640125</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="8">
         <v>0.37</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>-2.9607543326401253E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>-7.4091552626717254</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
         <v>28</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="9">
         <v>0.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>0.19980377166320062</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="8">
         <v>0.188</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>-1.1803771663200624E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>-5.907682104769103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>